--- a/medicine/Psychotrope/Triomphe_d'Alsace/Triomphe_d'Alsace.xlsx
+++ b/medicine/Psychotrope/Triomphe_d'Alsace/Triomphe_d'Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triomphe_d%27Alsace</t>
+          <t>Triomphe_d'Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Triomphe d'Alsace est un cépage de raisins noirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triomphe_d%27Alsace</t>
+          <t>Triomphe_d'Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Triomphe d'Alsace est une obtention de Eugène Kuhlmann vers 1911 en croisant (Vitis riparia × Vitis rupestris) × Goldriesling dans les installations du Institut Viticole Oberlin à Colmar en Alsace et commercialisé à partir de 1921.
 Le cépage est un hybride avec des parentages de Vitis vinifera, Vitis riparia et Vitis rupestris.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triomphe_d%27Alsace</t>
+          <t>Triomphe_d'Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque précoce: 5 - 6 jours avant le chasselas.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triomphe_d%27Alsace</t>
+          <t>Triomphe_d'Alsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille très petite. La grappe est cylindrique, ailée et lâche. Le cépage est peu vigoureux.
 Le vin rouge a un goût légèrement framboisé.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Triomphe_d%27Alsace</t>
+          <t>Triomphe_d'Alsace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Triomphe d'Alsace est connu sous le nom 319-1 Kuhlmann
 </t>
